--- a/code/ipqs_table.xlsx
+++ b/code/ipqs_table.xlsx
@@ -5,15 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESMOND\Documents\GitHub\Lisbon-freguesias\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desmond\Documents\GitHub\Lisbon-freguesias\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B985A431-66F5-4A21-8457-164C3D572F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAF1DE1-5682-412E-B88D-17CE240F0E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>ward24wq</t>
   </si>
@@ -76,6 +78,84 @@
   </si>
   <si>
     <t>wardk9</t>
+  </si>
+  <si>
+    <t>CH score</t>
+  </si>
+  <si>
+    <t>Silhouette score</t>
+  </si>
+  <si>
+    <t>DBI score</t>
+  </si>
+  <si>
+    <t>IPQ sum</t>
+  </si>
+  <si>
+    <t>IPQ average</t>
+  </si>
+  <si>
+    <t>IPQ stdv</t>
+  </si>
+  <si>
+    <t>nkmcls</t>
+  </si>
+  <si>
+    <t>nhacls</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>Parish labels</t>
+  </si>
+  <si>
+    <t>Number of buildings</t>
+  </si>
+  <si>
+    <t>Number of houses</t>
+  </si>
+  <si>
+    <t>Numeber of families</t>
+  </si>
+  <si>
+    <t>Number of Residents</t>
+  </si>
+  <si>
+    <t>Number of residents per area</t>
+  </si>
+  <si>
+    <t>Number of houses per area</t>
+  </si>
+  <si>
+    <t>Total number of houses per total buildings</t>
+  </si>
+  <si>
+    <t>Total number of families per total houses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of residents with colleage degree per total residents above 19 years old per </t>
+  </si>
+  <si>
+    <t>Number of residents under 19 years old per total</t>
+  </si>
+  <si>
+    <t>Number of residents above 65 years old per total</t>
+  </si>
+  <si>
+    <t>Number of female between 19 and 65 per total residents between 19 and 65</t>
+  </si>
+  <si>
+    <t>Number of employee per total residents between 19 and 65</t>
+  </si>
+  <si>
+    <t>Number of employee who work in the local per total employee</t>
+  </si>
+  <si>
+    <t>Number of communities in parish</t>
   </si>
 </sst>
 </file>
@@ -124,7 +204,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -132,11 +212,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -148,6 +243,24 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -432,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:P28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1622,4 +1735,1463 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2585A0-5B50-40E9-AB51-50E0EC9AE35C}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="7">
+        <v>831.89824699999997</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.21448800000000001</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1.4835860000000001</v>
+      </c>
+      <c r="E2" s="7">
+        <v>4.1812000000000002E-2</v>
+      </c>
+      <c r="F2" s="7">
+        <v>5.2269999999999999E-3</v>
+      </c>
+      <c r="G2" s="7">
+        <v>3.323E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="8">
+        <v>397.73433299999999</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.14880699999999999</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1.6790769999999999</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.28871000000000002</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1.2030000000000001E-2</v>
+      </c>
+      <c r="G3" s="8">
+        <v>9.809E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7">
+        <v>36.104182999999999</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-0.14666899999999999</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4.9186769999999997</v>
+      </c>
+      <c r="E4" s="7">
+        <v>6.9224620000000003</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.28843600000000003</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.14263000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9A2D94-EA48-4723-92ED-FF9BDE3BC8AA}">
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="17" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8">
+        <v>2111</v>
+      </c>
+      <c r="C2" s="8">
+        <v>26992</v>
+      </c>
+      <c r="D2" s="8">
+        <v>21056</v>
+      </c>
+      <c r="E2" s="8">
+        <v>43850</v>
+      </c>
+      <c r="F2" s="9">
+        <v>3579044</v>
+      </c>
+      <c r="G2" s="8">
+        <v>2.1694000000000001E-2</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1.3461000000000001E-2</v>
+      </c>
+      <c r="I2" s="8">
+        <v>15.285297999999999</v>
+      </c>
+      <c r="J2" s="8">
+        <v>0.77625200000000005</v>
+      </c>
+      <c r="K2" s="8">
+        <v>0.132267</v>
+      </c>
+      <c r="L2" s="8">
+        <v>0.30515399999999998</v>
+      </c>
+      <c r="M2" s="8">
+        <v>0.38766099999999998</v>
+      </c>
+      <c r="N2" s="8">
+        <v>0.55279599999999995</v>
+      </c>
+      <c r="O2" s="8">
+        <v>0.73406899999999997</v>
+      </c>
+      <c r="P2" s="8">
+        <v>0.78792399999999996</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>7413</v>
+      </c>
+      <c r="C3" s="8">
+        <v>38393</v>
+      </c>
+      <c r="D3" s="8">
+        <v>28981</v>
+      </c>
+      <c r="E3" s="8">
+        <v>63779</v>
+      </c>
+      <c r="F3" s="9">
+        <v>8458157</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.7077999999999999E-2</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1.0966E-2</v>
+      </c>
+      <c r="I3" s="8">
+        <v>7.4947109999999997</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0.75046900000000005</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0.14721600000000001</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0.275279</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0.15074899999999999</v>
+      </c>
+      <c r="N3" s="8">
+        <v>0.50459900000000002</v>
+      </c>
+      <c r="O3" s="8">
+        <v>0.66189900000000002</v>
+      </c>
+      <c r="P3" s="8">
+        <v>0.86324400000000001</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7">
+        <v>3736</v>
+      </c>
+      <c r="C4" s="7">
+        <v>10954</v>
+      </c>
+      <c r="D4" s="7">
+        <v>8501</v>
+      </c>
+      <c r="E4" s="7">
+        <v>18738</v>
+      </c>
+      <c r="F4" s="10">
+        <v>5619140</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1.1873999999999999E-2</v>
+      </c>
+      <c r="H4" s="7">
+        <v>7.0289999999999997E-3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>3.2230189999999999</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.893069</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.15345600000000001</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0.30893599999999999</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0.20016500000000001</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0.51862399999999997</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0.672207</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0.78312599999999999</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8">
+        <v>16029</v>
+      </c>
+      <c r="C5" s="8">
+        <v>84414</v>
+      </c>
+      <c r="D5" s="8">
+        <v>61460</v>
+      </c>
+      <c r="E5" s="8">
+        <v>132986</v>
+      </c>
+      <c r="F5" s="9">
+        <v>20117780</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1.5424999999999999E-2</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1.0205000000000001E-2</v>
+      </c>
+      <c r="I5" s="8">
+        <v>6.1777009999999999</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0.81997299999999995</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0.16051099999999999</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0.269928</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0.332231</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0.52885300000000002</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="8">
+        <v>0.83566200000000002</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1976</v>
+      </c>
+      <c r="C6" s="7">
+        <v>30108</v>
+      </c>
+      <c r="D6" s="7">
+        <v>24142</v>
+      </c>
+      <c r="E6" s="7">
+        <v>60367</v>
+      </c>
+      <c r="F6" s="10">
+        <v>5472909</v>
+      </c>
+      <c r="G6" s="7">
+        <v>2.0244000000000002E-2</v>
+      </c>
+      <c r="H6" s="7">
+        <v>9.8960000000000003E-3</v>
+      </c>
+      <c r="I6" s="7">
+        <v>19.271591999999998</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.80295799999999995</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.22097</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.13628299999999999</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0.55257599999999996</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0.52942599999999995</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0.76241800000000004</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0.79115500000000005</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8">
+        <v>3847</v>
+      </c>
+      <c r="C7" s="8">
+        <v>17499</v>
+      </c>
+      <c r="D7" s="8">
+        <v>10132</v>
+      </c>
+      <c r="E7" s="8">
+        <v>20177</v>
+      </c>
+      <c r="F7" s="9">
+        <v>2811695</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1.5043000000000001E-2</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1.3698999999999999E-2</v>
+      </c>
+      <c r="I7" s="8">
+        <v>4.764799</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0.57400200000000001</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0.111108</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0.26885199999999998</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0.26943699999999998</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0.46443600000000002</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0.71267400000000003</v>
+      </c>
+      <c r="P7" s="8">
+        <v>0.86867799999999995</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7">
+        <v>46</v>
+      </c>
+      <c r="C8" s="7">
+        <v>860</v>
+      </c>
+      <c r="D8" s="7">
+        <v>550</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1382</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1393300</v>
+      </c>
+      <c r="G8" s="7">
+        <v>3.5560000000000001E-3</v>
+      </c>
+      <c r="H8" s="7">
+        <v>2.0119999999999999E-3</v>
+      </c>
+      <c r="I8" s="7">
+        <v>30.005952000000001</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.53302700000000003</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.186694</v>
+      </c>
+      <c r="L8" s="7">
+        <v>6.5167000000000003E-2</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0.67401999999999995</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0.36764999999999998</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0.67929399999999995</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0.81358399999999997</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C9" s="8">
+        <v>11591</v>
+      </c>
+      <c r="D9" s="8">
+        <v>8924</v>
+      </c>
+      <c r="E9" s="8">
+        <v>22099</v>
+      </c>
+      <c r="F9" s="9">
+        <v>5295756</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1.2314E-2</v>
+      </c>
+      <c r="H9" s="8">
+        <v>6.326E-3</v>
+      </c>
+      <c r="I9" s="8">
+        <v>8.2604679999999995</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0.79200899999999996</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0.19766400000000001</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0.21864700000000001</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0.18770000000000001</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0.51730500000000001</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0.65757200000000005</v>
+      </c>
+      <c r="P9" s="8">
+        <v>0.80218100000000003</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7">
+        <v>557</v>
+      </c>
+      <c r="C10" s="7">
+        <v>842</v>
+      </c>
+      <c r="D10" s="7">
+        <v>642</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1603</v>
+      </c>
+      <c r="F10" s="10">
+        <v>222603.5</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1.7575E-2</v>
+      </c>
+      <c r="H10" s="7">
+        <v>8.6169999999999997E-3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>7.7112499999999997</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0.712252</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0.22831299999999999</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0.16734599999999999</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0.29226799999999997</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0.50602199999999997</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0.65592700000000004</v>
+      </c>
+      <c r="P10" s="7">
+        <v>0.78081999999999996</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8">
+        <v>888</v>
+      </c>
+      <c r="C11" s="8">
+        <v>6009</v>
+      </c>
+      <c r="D11" s="8">
+        <v>4573</v>
+      </c>
+      <c r="E11" s="8">
+        <v>11128</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1923995</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1.3225000000000001E-2</v>
+      </c>
+      <c r="H11" s="8">
+        <v>7.1349999999999998E-3</v>
+      </c>
+      <c r="I11" s="8">
+        <v>9.3906519999999993</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0.79178999999999999</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0.21007200000000001</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0.21895400000000001</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0.53707300000000002</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0.54353499999999999</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0.780053</v>
+      </c>
+      <c r="P11" s="8">
+        <v>0.75051500000000004</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7">
+        <v>4177</v>
+      </c>
+      <c r="C12" s="7">
+        <v>31061</v>
+      </c>
+      <c r="D12" s="7">
+        <v>23615</v>
+      </c>
+      <c r="E12" s="7">
+        <v>48097</v>
+      </c>
+      <c r="F12" s="10">
+        <v>2579642</v>
+      </c>
+      <c r="G12" s="7">
+        <v>2.3252999999999999E-2</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1.5181E-2</v>
+      </c>
+      <c r="I12" s="7">
+        <v>9.8073460000000008</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0.76258300000000001</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.14211699999999999</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0.24948799999999999</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0.30424299999999999</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0.51557399999999998</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0.73015699999999994</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0.85254200000000002</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8">
+        <v>920</v>
+      </c>
+      <c r="C13" s="8">
+        <v>10338</v>
+      </c>
+      <c r="D13" s="8">
+        <v>7506</v>
+      </c>
+      <c r="E13" s="8">
+        <v>15269</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1076987</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1.7212999999999999E-2</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1.1539000000000001E-2</v>
+      </c>
+      <c r="I13" s="8">
+        <v>12.626291999999999</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0.74244299999999996</v>
+      </c>
+      <c r="K13" s="8">
+        <v>0.14768800000000001</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0.30485699999999999</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0.49043300000000001</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0.54686400000000002</v>
+      </c>
+      <c r="O13" s="8">
+        <v>0.77268999999999999</v>
+      </c>
+      <c r="P13" s="8">
+        <v>0.82732300000000003</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1719</v>
+      </c>
+      <c r="C14" s="7">
+        <v>7705</v>
+      </c>
+      <c r="D14" s="7">
+        <v>6101</v>
+      </c>
+      <c r="E14" s="7">
+        <v>14923</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1957216</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1.6920999999999999E-2</v>
+      </c>
+      <c r="H14" s="7">
+        <v>8.3199999999999993E-3</v>
+      </c>
+      <c r="I14" s="7">
+        <v>8.1882359999999998</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0.78461499999999995</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0.18637500000000001</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0.26953199999999999</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0.259849</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0.50365700000000002</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0.64975799999999995</v>
+      </c>
+      <c r="P14" s="7">
+        <v>0.77796399999999999</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8">
+        <v>79</v>
+      </c>
+      <c r="C15" s="8">
+        <v>95</v>
+      </c>
+      <c r="D15" s="8">
+        <v>78</v>
+      </c>
+      <c r="E15" s="8">
+        <v>306</v>
+      </c>
+      <c r="F15" s="9">
+        <v>4024312</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1.45E-4</v>
+      </c>
+      <c r="H15" s="8">
+        <v>6.3999999999999997E-5</v>
+      </c>
+      <c r="I15" s="8">
+        <v>1.1746030000000001</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0.86931800000000004</v>
+      </c>
+      <c r="K15" s="8">
+        <v>0.176011</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0.16093399999999999</v>
+      </c>
+      <c r="M15" s="8">
+        <v>6.4644999999999994E-2</v>
+      </c>
+      <c r="N15" s="8">
+        <v>0.44609300000000002</v>
+      </c>
+      <c r="O15" s="8">
+        <v>0.66769599999999996</v>
+      </c>
+      <c r="P15" s="8">
+        <v>0.92156899999999997</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7">
+        <v>64</v>
+      </c>
+      <c r="C16" s="7">
+        <v>109</v>
+      </c>
+      <c r="D16" s="7">
+        <v>81</v>
+      </c>
+      <c r="E16" s="7">
+        <v>168</v>
+      </c>
+      <c r="F16" s="10">
+        <v>1643104</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1.02E-4</v>
+      </c>
+      <c r="H16" s="7">
+        <v>6.6000000000000005E-5</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1.703125</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.74311899999999997</v>
+      </c>
+      <c r="K16" s="7">
+        <v>7.7381000000000005E-2</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0.43452400000000002</v>
+      </c>
+      <c r="M16" s="7">
+        <v>5.1612999999999999E-2</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0.47560999999999998</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0.731707</v>
+      </c>
+      <c r="P16" s="7">
+        <v>0.78333299999999995</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8">
+        <v>3</v>
+      </c>
+      <c r="C17" s="8">
+        <v>10</v>
+      </c>
+      <c r="D17" s="8">
+        <v>5</v>
+      </c>
+      <c r="E17" s="8">
+        <v>242</v>
+      </c>
+      <c r="F17" s="9">
+        <v>204331.1</v>
+      </c>
+      <c r="G17" s="8">
+        <v>2.3499999999999999E-4</v>
+      </c>
+      <c r="H17" s="8">
+        <v>2.1100000000000001E-4</v>
+      </c>
+      <c r="I17" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="J17" s="8">
+        <v>1.25</v>
+      </c>
+      <c r="K17" s="8">
+        <v>1.6667000000000001E-2</v>
+      </c>
+      <c r="L17" s="8">
+        <v>2.0830000000000002E-3</v>
+      </c>
+      <c r="M17" s="8">
+        <v>9.6983E-2</v>
+      </c>
+      <c r="N17" s="8">
+        <v>1.9480999999999998E-2</v>
+      </c>
+      <c r="O17" s="8">
+        <v>0.49567099999999997</v>
+      </c>
+      <c r="P17" s="8">
+        <v>0.786026</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2443</v>
+      </c>
+      <c r="C18" s="7">
+        <v>29554</v>
+      </c>
+      <c r="D18" s="7">
+        <v>24745</v>
+      </c>
+      <c r="E18" s="7">
+        <v>61802</v>
+      </c>
+      <c r="F18" s="10">
+        <v>6475603</v>
+      </c>
+      <c r="G18" s="7">
+        <v>1.6008999999999999E-2</v>
+      </c>
+      <c r="H18" s="7">
+        <v>7.3829999999999998E-3</v>
+      </c>
+      <c r="I18" s="7">
+        <v>17.241471000000001</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0.82875299999999996</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0.18271299999999999</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0.23014999999999999</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0.263071</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0.50322</v>
+      </c>
+      <c r="O18" s="7">
+        <v>0.70454799999999995</v>
+      </c>
+      <c r="P18" s="7">
+        <v>0.81695700000000004</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>17</v>
+      </c>
+      <c r="B19" s="8">
+        <v>821</v>
+      </c>
+      <c r="C19" s="8">
+        <v>4226</v>
+      </c>
+      <c r="D19" s="8">
+        <v>3495</v>
+      </c>
+      <c r="E19" s="8">
+        <v>8923</v>
+      </c>
+      <c r="F19" s="9">
+        <v>1888791</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1.349E-2</v>
+      </c>
+      <c r="H19" s="8">
+        <v>6.7510000000000001E-3</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0.72221400000000002</v>
+      </c>
+      <c r="K19" s="8">
+        <v>0.17061599999999999</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0.30965399999999998</v>
+      </c>
+      <c r="M19" s="8">
+        <v>0.19844000000000001</v>
+      </c>
+      <c r="N19" s="8">
+        <v>0.51866199999999996</v>
+      </c>
+      <c r="O19" s="8">
+        <v>0.64042399999999999</v>
+      </c>
+      <c r="P19" s="8">
+        <v>0.82615400000000005</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7">
+        <v>36</v>
+      </c>
+      <c r="C20" s="7">
+        <v>113</v>
+      </c>
+      <c r="D20" s="7">
+        <v>93</v>
+      </c>
+      <c r="E20" s="7">
+        <v>212</v>
+      </c>
+      <c r="F20" s="10">
+        <v>766891.8</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="H20" s="7">
+        <v>9.1000000000000003E-5</v>
+      </c>
+      <c r="I20" s="7">
+        <v>3.1388889999999998</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0.82300899999999999</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0.16509399999999999</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0.20283000000000001</v>
+      </c>
+      <c r="M20" s="7">
+        <v>9.0395000000000003E-2</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="O20" s="7">
+        <v>0.62686600000000003</v>
+      </c>
+      <c r="P20" s="7">
+        <v>0.85714299999999999</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
+      <c r="B21" s="8">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="9">
+        <v>161857.29999999999</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="I21" s="8">
+        <v>1</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1216</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1543</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1213</v>
+      </c>
+      <c r="E22" s="7">
+        <v>3205</v>
+      </c>
+      <c r="F22" s="10">
+        <v>4701532</v>
+      </c>
+      <c r="G22" s="7">
+        <v>4.862E-3</v>
+      </c>
+      <c r="H22" s="7">
+        <v>2.4940000000000001E-3</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1.706629</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0.75092400000000004</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0.16627</v>
+      </c>
+      <c r="L22" s="7">
+        <v>0.27951999999999999</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0.33229700000000001</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0.50532999999999995</v>
+      </c>
+      <c r="O22" s="7">
+        <v>0.74717500000000003</v>
+      </c>
+      <c r="P22" s="7">
+        <v>0.79512899999999997</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>21</v>
+      </c>
+      <c r="B23" s="8">
+        <v>383</v>
+      </c>
+      <c r="C23" s="8">
+        <v>412</v>
+      </c>
+      <c r="D23" s="8">
+        <v>323</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1086</v>
+      </c>
+      <c r="F23" s="9">
+        <v>960797</v>
+      </c>
+      <c r="G23" s="8">
+        <v>1.7440000000000001E-3</v>
+      </c>
+      <c r="H23" s="8">
+        <v>6.9099999999999999E-4</v>
+      </c>
+      <c r="I23" s="8">
+        <v>1.0611630000000001</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0.78814799999999996</v>
+      </c>
+      <c r="K23" s="8">
+        <v>0.17949699999999999</v>
+      </c>
+      <c r="L23" s="8">
+        <v>0.29724299999999998</v>
+      </c>
+      <c r="M23" s="8">
+        <v>0.53422599999999998</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0.54404399999999997</v>
+      </c>
+      <c r="O23" s="8">
+        <v>0.75787499999999997</v>
+      </c>
+      <c r="P23" s="8">
+        <v>0.81821299999999997</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7">
+        <v>896</v>
+      </c>
+      <c r="C24" s="7">
+        <v>2440</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1744</v>
+      </c>
+      <c r="E24" s="7">
+        <v>4159</v>
+      </c>
+      <c r="F24" s="10">
+        <v>1508583</v>
+      </c>
+      <c r="G24" s="7">
+        <v>5.8869999999999999E-3</v>
+      </c>
+      <c r="H24" s="7">
+        <v>3.277E-3</v>
+      </c>
+      <c r="I24" s="7">
+        <v>2.345593</v>
+      </c>
+      <c r="J24" s="7">
+        <v>0.719746</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0.18923499999999999</v>
+      </c>
+      <c r="L24" s="7">
+        <v>0.25237500000000002</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0.53506699999999996</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0.51147399999999998</v>
+      </c>
+      <c r="O24" s="7">
+        <v>0.72316800000000003</v>
+      </c>
+      <c r="P24" s="7">
+        <v>0.73093699999999995</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>23</v>
+      </c>
+      <c r="B25" s="8">
+        <v>1111</v>
+      </c>
+      <c r="C25" s="8">
+        <v>8712</v>
+      </c>
+      <c r="D25" s="8">
+        <v>5932</v>
+      </c>
+      <c r="E25" s="8">
+        <v>13232</v>
+      </c>
+      <c r="F25" s="9">
+        <v>2099296</v>
+      </c>
+      <c r="G25" s="8">
+        <v>8.8769999999999995E-3</v>
+      </c>
+      <c r="H25" s="8">
+        <v>5.8900000000000003E-3</v>
+      </c>
+      <c r="I25" s="8">
+        <v>7.9698169999999999</v>
+      </c>
+      <c r="J25" s="8">
+        <v>0.68028</v>
+      </c>
+      <c r="K25" s="8">
+        <v>0.16572100000000001</v>
+      </c>
+      <c r="L25" s="8">
+        <v>0.250087</v>
+      </c>
+      <c r="M25" s="8">
+        <v>0.52943399999999996</v>
+      </c>
+      <c r="N25" s="8">
+        <v>0.52011600000000002</v>
+      </c>
+      <c r="O25" s="8">
+        <v>0.77383500000000005</v>
+      </c>
+      <c r="P25" s="8">
+        <v>0.85031999999999996</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>